--- a/Financials/Yearly/TRP_YR_FIN.xlsx
+++ b/Financials/Yearly/TRP_YR_FIN.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Sundeep\Stocks_Automation\Financials\Yearly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Yearly\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDE5090B-25F0-40CE-9947-5D0C16629361}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9345"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9348" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TRP" sheetId="6" r:id="rId1"/>
@@ -17,12 +18,12 @@
   <definedNames>
     <definedName name="Ticker">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="152511" calcMode="manual"/>
+  <calcPr calcId="152511" calcMode="manual" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="92">
   <si>
     <t>TRP</t>
   </si>
@@ -303,9 +304,9 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +348,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -444,6 +445,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -479,6 +497,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -654,142 +689,154 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:L102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="5.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="69.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="11" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43465</v>
+      </c>
+      <c r="E7" s="2">
         <v>43100</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>42735</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>42369</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>42004</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>41639</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>41274</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>40908</v>
       </c>
-      <c r="K7" s="2"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L7" s="2"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>10331900</v>
+        <v>10180000</v>
       </c>
       <c r="E8" s="3">
-        <v>9639000</v>
+        <v>10008900</v>
       </c>
       <c r="F8" s="3">
-        <v>8721700</v>
+        <v>9337600</v>
       </c>
       <c r="G8" s="3">
-        <v>7824400</v>
+        <v>8449000</v>
       </c>
       <c r="H8" s="3">
-        <v>6758100</v>
+        <v>7579800</v>
       </c>
       <c r="I8" s="3">
-        <v>6151200</v>
+        <v>6546800</v>
       </c>
       <c r="J8" s="3">
+        <v>5958900</v>
+      </c>
+      <c r="K8" s="3">
         <v>6022200</v>
       </c>
-      <c r="K8" s="3"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L8" s="3"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>4830600</v>
+        <v>3779800</v>
       </c>
       <c r="E9" s="3">
-        <v>4634700</v>
+        <v>4679600</v>
       </c>
       <c r="F9" s="3">
-        <v>4256000</v>
+        <v>4489800</v>
       </c>
       <c r="G9" s="3">
-        <v>3694400</v>
+        <v>4122900</v>
       </c>
       <c r="H9" s="3">
-        <v>3066000</v>
+        <v>3578900</v>
       </c>
       <c r="I9" s="3">
-        <v>2785600</v>
+        <v>2970100</v>
       </c>
       <c r="J9" s="3">
+        <v>2698500</v>
+      </c>
+      <c r="K9" s="3">
         <v>2572800</v>
       </c>
-      <c r="K9" s="3"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L9" s="3"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>5501300</v>
+        <v>6400200</v>
       </c>
       <c r="E10" s="3">
-        <v>5004300</v>
+        <v>5329300</v>
       </c>
       <c r="F10" s="3">
-        <v>4465700</v>
+        <v>4847800</v>
       </c>
       <c r="G10" s="3">
-        <v>4130000</v>
+        <v>4326100</v>
       </c>
       <c r="H10" s="3">
-        <v>3692100</v>
+        <v>4000900</v>
       </c>
       <c r="I10" s="3">
-        <v>3365600</v>
+        <v>3576700</v>
       </c>
       <c r="J10" s="3">
+        <v>3260400</v>
+      </c>
+      <c r="K10" s="3">
         <v>3449400</v>
       </c>
-      <c r="K10" s="3"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L10" s="3"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -801,8 +848,9 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -827,9 +875,12 @@
       <c r="J12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K12" s="3"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L12" s="3"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -854,26 +905,29 @@
       <c r="J13" s="3">
         <v>0</v>
       </c>
-      <c r="K13" s="3"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K13" s="3">
+        <v>0</v>
+      </c>
+      <c r="L13" s="3"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>965700</v>
+        <v>596100</v>
       </c>
       <c r="E14" s="3">
-        <v>1150000</v>
+        <v>935500</v>
       </c>
       <c r="F14" s="3">
-        <v>2877000</v>
+        <v>1114100</v>
       </c>
       <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>8</v>
+        <v>2787100</v>
+      </c>
+      <c r="H14" s="3">
+        <v>0</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>8</v>
@@ -881,36 +935,42 @@
       <c r="J14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K14" s="3"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L14" s="3"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>1578700</v>
+        <v>1748900</v>
       </c>
       <c r="E15" s="3">
-        <v>1489600</v>
+        <v>1529400</v>
       </c>
       <c r="F15" s="3">
-        <v>1355900</v>
+        <v>1443000</v>
       </c>
       <c r="G15" s="3">
-        <v>1237600</v>
+        <v>1313500</v>
       </c>
       <c r="H15" s="3">
-        <v>1140800</v>
+        <v>1198900</v>
       </c>
       <c r="I15" s="3">
-        <v>1056300</v>
+        <v>1105200</v>
       </c>
       <c r="J15" s="3">
+        <v>1023300</v>
+      </c>
+      <c r="K15" s="3">
         <v>1020200</v>
       </c>
-      <c r="K15" s="3"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L15" s="3"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -919,62 +979,69 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>7812100</v>
+        <v>6548300</v>
       </c>
       <c r="E17" s="3">
-        <v>7700700</v>
+        <v>7567900</v>
       </c>
       <c r="F17" s="3">
-        <v>8886100</v>
+        <v>7460000</v>
       </c>
       <c r="G17" s="3">
-        <v>5295400</v>
+        <v>8608300</v>
       </c>
       <c r="H17" s="3">
-        <v>4548700</v>
+        <v>5129800</v>
       </c>
       <c r="I17" s="3">
-        <v>4175300</v>
+        <v>4406500</v>
       </c>
       <c r="J17" s="3">
+        <v>4044800</v>
+      </c>
+      <c r="K17" s="3">
         <v>3908000</v>
       </c>
-      <c r="K17" s="3"/>
-    </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L17" s="3"/>
+    </row>
+    <row r="18" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>2519800</v>
+        <v>3631700</v>
       </c>
       <c r="E18" s="3">
-        <v>1938200</v>
+        <v>2441000</v>
       </c>
       <c r="F18" s="3">
-        <v>-164400</v>
+        <v>1877600</v>
       </c>
       <c r="G18" s="3">
-        <v>2529000</v>
+        <v>-159300</v>
       </c>
       <c r="H18" s="3">
-        <v>2209400</v>
+        <v>2449900</v>
       </c>
       <c r="I18" s="3">
-        <v>1975900</v>
+        <v>2140300</v>
       </c>
       <c r="J18" s="3">
+        <v>1914100</v>
+      </c>
+      <c r="K18" s="3">
         <v>2114200</v>
       </c>
-      <c r="K18" s="3"/>
-    </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L18" s="3"/>
+    </row>
+    <row r="19" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -986,143 +1053,159 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>1608700</v>
+        <v>992800</v>
       </c>
       <c r="E20" s="3">
-        <v>151300</v>
+        <v>1558400</v>
       </c>
       <c r="F20" s="3">
-        <v>456300</v>
+        <v>146600</v>
       </c>
       <c r="G20" s="3">
-        <v>560800</v>
+        <v>442100</v>
       </c>
       <c r="H20" s="3">
-        <v>500900</v>
+        <v>543300</v>
       </c>
       <c r="I20" s="3">
-        <v>-317300</v>
+        <v>485200</v>
       </c>
       <c r="J20" s="3">
+        <v>-307400</v>
+      </c>
+      <c r="K20" s="3">
         <v>399500</v>
       </c>
-      <c r="K20" s="3"/>
-    </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L20" s="3"/>
+    </row>
+    <row r="21" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>5714700</v>
+        <v>6377100</v>
       </c>
       <c r="E21" s="3">
-        <v>3586300</v>
+        <v>5531900</v>
       </c>
       <c r="F21" s="3">
-        <v>1654300</v>
+        <v>3470300</v>
       </c>
       <c r="G21" s="3">
-        <v>4333400</v>
+        <v>1599100</v>
       </c>
       <c r="H21" s="3">
-        <v>3856600</v>
+        <v>4194600</v>
       </c>
       <c r="I21" s="3">
-        <v>2720000</v>
+        <v>3733000</v>
       </c>
       <c r="J21" s="3">
+        <v>2632200</v>
+      </c>
+      <c r="K21" s="3">
         <v>3538700</v>
       </c>
-      <c r="K21" s="3"/>
-    </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L21" s="3"/>
+    </row>
+    <row r="22" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>1588700</v>
+        <v>1685600</v>
       </c>
       <c r="E22" s="3">
-        <v>1446600</v>
+        <v>1539000</v>
       </c>
       <c r="F22" s="3">
-        <v>1141600</v>
+        <v>1401300</v>
       </c>
       <c r="G22" s="3">
-        <v>920300</v>
+        <v>1105900</v>
       </c>
       <c r="H22" s="3">
-        <v>772800</v>
+        <v>891600</v>
       </c>
       <c r="I22" s="3">
-        <v>169800</v>
+        <v>748700</v>
       </c>
       <c r="J22" s="3">
+        <v>164500</v>
+      </c>
+      <c r="K22" s="3">
         <v>758200</v>
       </c>
-      <c r="K22" s="3"/>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L22" s="3"/>
+    </row>
+    <row r="23" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>2539800</v>
+        <v>2938900</v>
       </c>
       <c r="E23" s="3">
-        <v>643000</v>
+        <v>2460400</v>
       </c>
       <c r="F23" s="3">
-        <v>-849700</v>
+        <v>622900</v>
       </c>
       <c r="G23" s="3">
-        <v>2169500</v>
+        <v>-823100</v>
       </c>
       <c r="H23" s="3">
-        <v>1937500</v>
+        <v>2101600</v>
       </c>
       <c r="I23" s="3">
-        <v>1488800</v>
+        <v>1876900</v>
       </c>
       <c r="J23" s="3">
+        <v>1442300</v>
+      </c>
+      <c r="K23" s="3">
         <v>1755400</v>
       </c>
-      <c r="K23" s="3"/>
-    </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L23" s="3"/>
+    </row>
+    <row r="24" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>549300</v>
+        <v>445800</v>
       </c>
       <c r="E24" s="3">
-        <v>270400</v>
+        <v>532100</v>
       </c>
       <c r="F24" s="3">
-        <v>26100</v>
+        <v>262000</v>
       </c>
       <c r="G24" s="3">
-        <v>638400</v>
+        <v>25300</v>
       </c>
       <c r="H24" s="3">
-        <v>469400</v>
+        <v>618400</v>
       </c>
       <c r="I24" s="3">
-        <v>358000</v>
+        <v>454700</v>
       </c>
       <c r="J24" s="3">
+        <v>346800</v>
+      </c>
+      <c r="K24" s="3">
         <v>441700</v>
       </c>
-      <c r="K24" s="3"/>
-    </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L24" s="3"/>
+    </row>
+    <row r="25" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1147,63 +1230,72 @@
       <c r="J25" s="3">
         <v>0</v>
       </c>
-      <c r="K25" s="3"/>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K25" s="3">
+        <v>0</v>
+      </c>
+      <c r="L25" s="3"/>
+    </row>
+    <row r="26" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>1990500</v>
+        <v>2493100</v>
       </c>
       <c r="E26" s="3">
-        <v>372600</v>
+        <v>1928200</v>
       </c>
       <c r="F26" s="3">
-        <v>-875800</v>
+        <v>360900</v>
       </c>
       <c r="G26" s="3">
-        <v>1531100</v>
+        <v>-848400</v>
       </c>
       <c r="H26" s="3">
-        <v>1468100</v>
+        <v>1483200</v>
       </c>
       <c r="I26" s="3">
-        <v>1130800</v>
+        <v>1422200</v>
       </c>
       <c r="J26" s="3">
+        <v>1095500</v>
+      </c>
+      <c r="K26" s="3">
         <v>1313700</v>
       </c>
-      <c r="K26" s="3"/>
-    </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L26" s="3"/>
+    </row>
+    <row r="27" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>1684700</v>
+        <v>2509500</v>
       </c>
       <c r="E27" s="3">
-        <v>95300</v>
+        <v>1632100</v>
       </c>
       <c r="F27" s="3">
-        <v>-952600</v>
+        <v>92300</v>
       </c>
       <c r="G27" s="3">
-        <v>1339000</v>
+        <v>-922800</v>
       </c>
       <c r="H27" s="3">
-        <v>1315200</v>
+        <v>1297200</v>
       </c>
       <c r="I27" s="3">
-        <v>997900</v>
+        <v>1274100</v>
       </c>
       <c r="J27" s="3">
+        <v>966700</v>
+      </c>
+      <c r="K27" s="3">
         <v>1172300</v>
       </c>
-      <c r="K27" s="3"/>
-    </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L27" s="3"/>
+    </row>
+    <row r="28" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1228,23 +1320,26 @@
       <c r="J28" s="3">
         <v>0</v>
       </c>
-      <c r="K28" s="3"/>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K28" s="3">
+        <v>0</v>
+      </c>
+      <c r="L28" s="3"/>
+    </row>
+    <row r="29" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>617700</v>
+        <v>124300</v>
       </c>
       <c r="E29" s="3">
-        <v>0</v>
+        <v>598300</v>
       </c>
       <c r="F29" s="3">
         <v>0</v>
       </c>
-      <c r="G29" s="3" t="s">
-        <v>8</v>
+      <c r="G29" s="3">
+        <v>0</v>
       </c>
       <c r="H29" s="3" t="s">
         <v>8</v>
@@ -1255,9 +1350,12 @@
       <c r="J29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K29" s="3"/>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L29" s="3"/>
+    </row>
+    <row r="30" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1282,9 +1380,12 @@
       <c r="J30" s="3">
         <v>0</v>
       </c>
-      <c r="K30" s="3"/>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K30" s="3">
+        <v>0</v>
+      </c>
+      <c r="L30" s="3"/>
+    </row>
+    <row r="31" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1309,63 +1410,72 @@
       <c r="J31" s="3">
         <v>0</v>
       </c>
-      <c r="K31" s="3"/>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K31" s="3">
+        <v>0</v>
+      </c>
+      <c r="L31" s="3"/>
+    </row>
+    <row r="32" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-1608700</v>
+        <v>-992800</v>
       </c>
       <c r="E32" s="3">
-        <v>-151300</v>
+        <v>-1558400</v>
       </c>
       <c r="F32" s="3">
-        <v>-456300</v>
+        <v>-146600</v>
       </c>
       <c r="G32" s="3">
-        <v>-560800</v>
+        <v>-442100</v>
       </c>
       <c r="H32" s="3">
-        <v>-500900</v>
+        <v>-543300</v>
       </c>
       <c r="I32" s="3">
-        <v>317300</v>
+        <v>-485200</v>
       </c>
       <c r="J32" s="3">
+        <v>307400</v>
+      </c>
+      <c r="K32" s="3">
         <v>-399500</v>
       </c>
-      <c r="K32" s="3"/>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L32" s="3"/>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>2302400</v>
+        <v>2633800</v>
       </c>
       <c r="E33" s="3">
-        <v>95300</v>
+        <v>2230400</v>
       </c>
       <c r="F33" s="3">
-        <v>-952600</v>
+        <v>92300</v>
       </c>
       <c r="G33" s="3">
-        <v>1339000</v>
+        <v>-922800</v>
       </c>
       <c r="H33" s="3">
-        <v>1315200</v>
+        <v>1297200</v>
       </c>
       <c r="I33" s="3">
-        <v>997900</v>
+        <v>1274100</v>
       </c>
       <c r="J33" s="3">
+        <v>966700</v>
+      </c>
+      <c r="K33" s="3">
         <v>1172300</v>
       </c>
-      <c r="K33" s="3"/>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L33" s="3"/>
+    </row>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1390,68 +1500,77 @@
       <c r="J34" s="3">
         <v>0</v>
       </c>
-      <c r="K34" s="3"/>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K34" s="3">
+        <v>0</v>
+      </c>
+      <c r="L34" s="3"/>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>2302400</v>
+        <v>2633800</v>
       </c>
       <c r="E35" s="3">
-        <v>95300</v>
+        <v>2230400</v>
       </c>
       <c r="F35" s="3">
-        <v>-952600</v>
+        <v>92300</v>
       </c>
       <c r="G35" s="3">
-        <v>1339000</v>
+        <v>-922800</v>
       </c>
       <c r="H35" s="3">
-        <v>1315200</v>
+        <v>1297200</v>
       </c>
       <c r="I35" s="3">
-        <v>997900</v>
+        <v>1274100</v>
       </c>
       <c r="J35" s="3">
+        <v>966700</v>
+      </c>
+      <c r="K35" s="3">
         <v>1172300</v>
       </c>
-      <c r="K35" s="3"/>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L35" s="3"/>
+    </row>
+    <row r="37" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43465</v>
+      </c>
+      <c r="E38" s="2">
         <v>43100</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>42735</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>42369</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>42004</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>41639</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>41274</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>40908</v>
       </c>
-      <c r="K38" s="2"/>
-    </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L38" s="2"/>
+    </row>
+    <row r="39" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1463,8 +1582,9 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1476,251 +1596,279 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>836600</v>
+        <v>331900</v>
       </c>
       <c r="E41" s="3">
-        <v>780500</v>
+        <v>810400</v>
       </c>
       <c r="F41" s="3">
-        <v>653000</v>
+        <v>756100</v>
       </c>
       <c r="G41" s="3">
-        <v>375700</v>
+        <v>632600</v>
       </c>
       <c r="H41" s="3">
-        <v>712100</v>
+        <v>363900</v>
       </c>
       <c r="I41" s="3">
-        <v>423300</v>
+        <v>689900</v>
       </c>
       <c r="J41" s="3">
+        <v>410100</v>
+      </c>
+      <c r="K41" s="3">
         <v>502400</v>
       </c>
-      <c r="K41" s="3"/>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L41" s="3"/>
+    </row>
+    <row r="42" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>0</v>
-      </c>
-      <c r="E42" s="3">
-        <v>0</v>
-      </c>
-      <c r="F42" s="3">
-        <v>0</v>
-      </c>
-      <c r="G42" s="3">
-        <v>0</v>
-      </c>
-      <c r="H42" s="3">
-        <v>0</v>
-      </c>
-      <c r="I42" s="3">
-        <v>0</v>
-      </c>
-      <c r="J42" s="3">
-        <v>0</v>
-      </c>
-      <c r="K42" s="3"/>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+        <v>533600</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K42" s="3">
+        <v>0</v>
+      </c>
+      <c r="L42" s="3"/>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>1937500</v>
+        <v>2004900</v>
       </c>
       <c r="E43" s="3">
-        <v>1594100</v>
+        <v>1876900</v>
       </c>
       <c r="F43" s="3">
-        <v>1065500</v>
+        <v>1544200</v>
       </c>
       <c r="G43" s="3">
-        <v>1008700</v>
+        <v>1032200</v>
       </c>
       <c r="H43" s="3">
-        <v>862000</v>
+        <v>977100</v>
       </c>
       <c r="I43" s="3">
-        <v>808200</v>
+        <v>835000</v>
       </c>
       <c r="J43" s="3">
+        <v>782900</v>
+      </c>
+      <c r="K43" s="3">
         <v>840400</v>
       </c>
-      <c r="K43" s="3"/>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L43" s="3"/>
+    </row>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>290400</v>
+        <v>320800</v>
       </c>
       <c r="E44" s="3">
-        <v>282700</v>
+        <v>281300</v>
       </c>
       <c r="F44" s="3">
-        <v>248100</v>
+        <v>273900</v>
       </c>
       <c r="G44" s="3">
-        <v>224300</v>
+        <v>240400</v>
       </c>
       <c r="H44" s="3">
-        <v>192800</v>
+        <v>217300</v>
       </c>
       <c r="I44" s="3">
-        <v>172100</v>
+        <v>186800</v>
       </c>
       <c r="J44" s="3">
+        <v>166700</v>
+      </c>
+      <c r="K44" s="3">
         <v>190500</v>
       </c>
-      <c r="K44" s="3"/>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L44" s="3"/>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>530800</v>
+        <v>630300</v>
       </c>
       <c r="E45" s="3">
-        <v>3553100</v>
+        <v>514200</v>
       </c>
       <c r="F45" s="3">
-        <v>1573300</v>
+        <v>3442000</v>
       </c>
       <c r="G45" s="3">
-        <v>1893700</v>
+        <v>1524100</v>
       </c>
       <c r="H45" s="3">
-        <v>650700</v>
+        <v>1834500</v>
       </c>
       <c r="I45" s="3">
-        <v>765900</v>
+        <v>630300</v>
       </c>
       <c r="J45" s="3">
+        <v>742000</v>
+      </c>
+      <c r="K45" s="3">
         <v>855800</v>
       </c>
-      <c r="K45" s="3"/>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L45" s="3"/>
+    </row>
+    <row r="46" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>3595300</v>
+        <v>3821500</v>
       </c>
       <c r="E46" s="3">
-        <v>6210400</v>
+        <v>3482900</v>
       </c>
       <c r="F46" s="3">
-        <v>3009900</v>
+        <v>6016200</v>
       </c>
       <c r="G46" s="3">
-        <v>2391500</v>
+        <v>2915800</v>
       </c>
       <c r="H46" s="3">
-        <v>2417600</v>
+        <v>2316700</v>
       </c>
       <c r="I46" s="3">
-        <v>2169500</v>
+        <v>2342000</v>
       </c>
       <c r="J46" s="3">
+        <v>2101600</v>
+      </c>
+      <c r="K46" s="3">
         <v>2389200</v>
       </c>
-      <c r="K46" s="3"/>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L46" s="3"/>
+    </row>
+    <row r="47" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>5649600</v>
+        <v>6309400</v>
       </c>
       <c r="E47" s="3">
-        <v>5117900</v>
+        <v>5472900</v>
       </c>
       <c r="F47" s="3">
-        <v>4992700</v>
+        <v>4957900</v>
       </c>
       <c r="G47" s="3">
-        <v>4484900</v>
+        <v>4836600</v>
       </c>
       <c r="H47" s="3">
-        <v>4650900</v>
+        <v>4344700</v>
       </c>
       <c r="I47" s="3">
-        <v>4416600</v>
+        <v>4505400</v>
       </c>
       <c r="J47" s="3">
+        <v>4278500</v>
+      </c>
+      <c r="K47" s="3">
         <v>4236000</v>
       </c>
-      <c r="K47" s="3"/>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L47" s="3"/>
+    </row>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>44001900</v>
+        <v>49492200</v>
       </c>
       <c r="E48" s="3">
-        <v>41849300</v>
+        <v>42626100</v>
       </c>
       <c r="F48" s="3">
-        <v>68859500</v>
+        <v>40540800</v>
       </c>
       <c r="G48" s="3">
-        <v>64184100</v>
+        <v>66706500</v>
       </c>
       <c r="H48" s="3">
-        <v>28890100</v>
+        <v>62177300</v>
       </c>
       <c r="I48" s="3">
-        <v>25899300</v>
+        <v>27986800</v>
       </c>
       <c r="J48" s="3">
+        <v>25089600</v>
+      </c>
+      <c r="K48" s="3">
         <v>93656500</v>
       </c>
-      <c r="K48" s="3"/>
-    </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L48" s="3"/>
+    </row>
+    <row r="49" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>10509400</v>
+        <v>11333600</v>
       </c>
       <c r="E49" s="3">
-        <v>12331600</v>
+        <v>10180800</v>
       </c>
       <c r="F49" s="3">
-        <v>7513300</v>
+        <v>11946100</v>
       </c>
       <c r="G49" s="3">
-        <v>4504900</v>
+        <v>7278400</v>
       </c>
       <c r="H49" s="3">
-        <v>3526900</v>
+        <v>4364000</v>
       </c>
       <c r="I49" s="3">
-        <v>2945400</v>
+        <v>3416700</v>
       </c>
       <c r="J49" s="3">
+        <v>2853300</v>
+      </c>
+      <c r="K49" s="3">
         <v>4594800</v>
       </c>
-      <c r="K49" s="3"/>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L49" s="3"/>
+    </row>
+    <row r="50" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1745,9 +1893,12 @@
       <c r="J50" s="3">
         <v>0</v>
       </c>
-      <c r="K50" s="3"/>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K50" s="3">
+        <v>0</v>
+      </c>
+      <c r="L50" s="3"/>
+    </row>
+    <row r="51" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1772,36 +1923,42 @@
       <c r="J51" s="3">
         <v>0</v>
       </c>
-      <c r="K51" s="3"/>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K51" s="3">
+        <v>0</v>
+      </c>
+      <c r="L51" s="3"/>
+    </row>
+    <row r="52" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>2389200</v>
+        <v>2660600</v>
       </c>
       <c r="E52" s="3">
-        <v>2134100</v>
+        <v>2314500</v>
       </c>
       <c r="F52" s="3">
-        <v>1849100</v>
+        <v>2067400</v>
       </c>
       <c r="G52" s="3">
-        <v>1696300</v>
+        <v>1791300</v>
       </c>
       <c r="H52" s="3">
-        <v>1920600</v>
+        <v>1643200</v>
       </c>
       <c r="I52" s="3">
-        <v>1700100</v>
+        <v>1860500</v>
       </c>
       <c r="J52" s="3">
+        <v>1646900</v>
+      </c>
+      <c r="K52" s="3">
         <v>1738500</v>
       </c>
-      <c r="K52" s="3"/>
-    </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L52" s="3"/>
+    </row>
+    <row r="53" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1826,36 +1983,42 @@
       <c r="J53" s="3">
         <v>0</v>
       </c>
-      <c r="K53" s="3"/>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K53" s="3">
+        <v>0</v>
+      </c>
+      <c r="L53" s="3"/>
+    </row>
+    <row r="54" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>66145400</v>
+        <v>73617300</v>
       </c>
       <c r="E54" s="3">
-        <v>67643400</v>
+        <v>64077200</v>
       </c>
       <c r="F54" s="3">
-        <v>49472500</v>
+        <v>65528400</v>
       </c>
       <c r="G54" s="3">
-        <v>44960700</v>
+        <v>47925600</v>
       </c>
       <c r="H54" s="3">
-        <v>41406100</v>
+        <v>43554900</v>
       </c>
       <c r="I54" s="3">
-        <v>37130900</v>
+        <v>40111400</v>
       </c>
       <c r="J54" s="3">
+        <v>35969900</v>
+      </c>
+      <c r="K54" s="3">
         <v>36366500</v>
       </c>
-      <c r="K54" s="3"/>
-    </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L54" s="3"/>
+    </row>
+    <row r="55" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1867,8 +2030,9 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+    </row>
+    <row r="56" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1880,170 +2044,189 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+    </row>
+    <row r="57" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>2819400</v>
+        <v>2898700</v>
       </c>
       <c r="E57" s="3">
-        <v>2120300</v>
+        <v>2731300</v>
       </c>
       <c r="F57" s="3">
-        <v>2809400</v>
+        <v>2054000</v>
       </c>
       <c r="G57" s="3">
-        <v>1247600</v>
+        <v>2721600</v>
       </c>
       <c r="H57" s="3">
-        <v>665300</v>
+        <v>1208600</v>
       </c>
       <c r="I57" s="3">
-        <v>709100</v>
+        <v>644500</v>
       </c>
       <c r="J57" s="3">
+        <v>686900</v>
+      </c>
+      <c r="K57" s="3">
         <v>534700</v>
       </c>
-      <c r="K57" s="3"/>
-    </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L57" s="3"/>
+    </row>
+    <row r="58" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>3556100</v>
+        <v>4632000</v>
       </c>
       <c r="E58" s="3">
-        <v>2006600</v>
+        <v>3444900</v>
       </c>
       <c r="F58" s="3">
-        <v>2892400</v>
+        <v>1943900</v>
       </c>
       <c r="G58" s="3">
-        <v>3275700</v>
+        <v>2802000</v>
       </c>
       <c r="H58" s="3">
-        <v>2162600</v>
+        <v>3173300</v>
       </c>
       <c r="I58" s="3">
-        <v>2434500</v>
+        <v>2095000</v>
       </c>
       <c r="J58" s="3">
+        <v>2358400</v>
+      </c>
+      <c r="K58" s="3">
         <v>2174900</v>
       </c>
-      <c r="K58" s="3"/>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L58" s="3"/>
+    </row>
+    <row r="59" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1212300</v>
+        <v>2103900</v>
       </c>
       <c r="E59" s="3">
-        <v>1773100</v>
+        <v>1174400</v>
       </c>
       <c r="F59" s="3">
-        <v>1563300</v>
+        <v>1717600</v>
       </c>
       <c r="G59" s="3">
-        <v>1302900</v>
+        <v>1514500</v>
       </c>
       <c r="H59" s="3">
-        <v>1288300</v>
+        <v>1262200</v>
       </c>
       <c r="I59" s="3">
-        <v>1374400</v>
+        <v>1248000</v>
       </c>
       <c r="J59" s="3">
+        <v>1331400</v>
+      </c>
+      <c r="K59" s="3">
         <v>1558000</v>
       </c>
-      <c r="K59" s="3"/>
-    </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L59" s="3"/>
+    </row>
+    <row r="60" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>7587800</v>
+        <v>9634500</v>
       </c>
       <c r="E60" s="3">
-        <v>5900000</v>
+        <v>7350600</v>
       </c>
       <c r="F60" s="3">
-        <v>5655700</v>
+        <v>5715500</v>
       </c>
       <c r="G60" s="3">
-        <v>5823200</v>
+        <v>5478900</v>
       </c>
       <c r="H60" s="3">
-        <v>4116200</v>
+        <v>5641100</v>
       </c>
       <c r="I60" s="3">
-        <v>4518000</v>
+        <v>3987500</v>
       </c>
       <c r="J60" s="3">
+        <v>4376700</v>
+      </c>
+      <c r="K60" s="3">
         <v>4242200</v>
       </c>
-      <c r="K60" s="3"/>
-    </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L60" s="3"/>
+    </row>
+    <row r="61" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>29870300</v>
+        <v>32757900</v>
       </c>
       <c r="E61" s="3">
-        <v>32452300</v>
+        <v>28936400</v>
       </c>
       <c r="F61" s="3">
-        <v>24059400</v>
+        <v>31437700</v>
       </c>
       <c r="G61" s="3">
-        <v>18529700</v>
+        <v>23307200</v>
       </c>
       <c r="H61" s="3">
-        <v>17634700</v>
+        <v>17950300</v>
       </c>
       <c r="I61" s="3">
-        <v>14606400</v>
+        <v>17083300</v>
       </c>
       <c r="J61" s="3">
+        <v>14149700</v>
+      </c>
+      <c r="K61" s="3">
         <v>14396600</v>
       </c>
-      <c r="K61" s="3"/>
-    </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L61" s="3"/>
+    </row>
+    <row r="62" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>8028800</v>
+        <v>8159500</v>
       </c>
       <c r="E62" s="3">
-        <v>9330200</v>
+        <v>7777700</v>
       </c>
       <c r="F62" s="3">
-        <v>6778100</v>
+        <v>9038400</v>
       </c>
       <c r="G62" s="3">
-        <v>4741500</v>
+        <v>6566200</v>
       </c>
       <c r="H62" s="3">
-        <v>4186100</v>
+        <v>4593300</v>
       </c>
       <c r="I62" s="3">
-        <v>3920300</v>
+        <v>4055200</v>
       </c>
       <c r="J62" s="3">
+        <v>3797700</v>
+      </c>
+      <c r="K62" s="3">
         <v>4414200</v>
       </c>
-      <c r="K62" s="3"/>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L62" s="3"/>
+    </row>
+    <row r="63" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2068,9 +2251,12 @@
       <c r="J63" s="3">
         <v>0</v>
       </c>
-      <c r="K63" s="3"/>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K63" s="3">
+        <v>0</v>
+      </c>
+      <c r="L63" s="3"/>
+    </row>
+    <row r="64" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2095,9 +2281,12 @@
       <c r="J64" s="3">
         <v>0</v>
       </c>
-      <c r="K64" s="3"/>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K64" s="3">
+        <v>0</v>
+      </c>
+      <c r="L64" s="3"/>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2122,36 +2311,42 @@
       <c r="J65" s="3">
         <v>0</v>
       </c>
-      <c r="K65" s="3"/>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K65" s="3">
+        <v>0</v>
+      </c>
+      <c r="L65" s="3"/>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>46909700</v>
+        <v>51783600</v>
       </c>
       <c r="E66" s="3">
-        <v>49008500</v>
+        <v>45443000</v>
       </c>
       <c r="F66" s="3">
-        <v>36844300</v>
+        <v>47476100</v>
       </c>
       <c r="G66" s="3">
-        <v>30310500</v>
+        <v>35692300</v>
       </c>
       <c r="H66" s="3">
-        <v>27174600</v>
+        <v>29362800</v>
       </c>
       <c r="I66" s="3">
-        <v>24139300</v>
+        <v>26324900</v>
       </c>
       <c r="J66" s="3">
+        <v>23384600</v>
+      </c>
+      <c r="K66" s="3">
         <v>23464800</v>
       </c>
-      <c r="K66" s="3"/>
-    </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L66" s="3"/>
+    </row>
+    <row r="67" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2163,8 +2358,9 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+    </row>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2189,9 +2385,12 @@
       <c r="J68" s="3">
         <v>0</v>
       </c>
-      <c r="K68" s="3"/>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K68" s="3">
+        <v>0</v>
+      </c>
+      <c r="L68" s="3"/>
+    </row>
+    <row r="69" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2216,36 +2415,42 @@
       <c r="J69" s="3">
         <v>0</v>
       </c>
-      <c r="K69" s="3"/>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K69" s="3">
+        <v>0</v>
+      </c>
+      <c r="L69" s="3"/>
+    </row>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D70" s="3">
-        <v>3057600</v>
+        <v>2962000</v>
       </c>
       <c r="E70" s="3">
-        <v>3057600</v>
+        <v>2962000</v>
       </c>
       <c r="F70" s="3">
-        <v>1919800</v>
+        <v>2962000</v>
       </c>
       <c r="G70" s="3">
-        <v>1732400</v>
+        <v>1859800</v>
       </c>
       <c r="H70" s="3">
-        <v>1392800</v>
+        <v>1678200</v>
       </c>
       <c r="I70" s="3">
-        <v>940300</v>
+        <v>1349300</v>
       </c>
       <c r="J70" s="3">
+        <v>910900</v>
+      </c>
+      <c r="K70" s="3">
         <v>1880600</v>
       </c>
-      <c r="K70" s="3"/>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L70" s="3"/>
+    </row>
+    <row r="71" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2270,36 +2475,42 @@
       <c r="J71" s="3">
         <v>0</v>
       </c>
-      <c r="K71" s="3"/>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K71" s="3">
+        <v>0</v>
+      </c>
+      <c r="L71" s="3"/>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>1246800</v>
+        <v>2063700</v>
       </c>
       <c r="E72" s="3">
-        <v>874200</v>
+        <v>1207900</v>
       </c>
       <c r="F72" s="3">
-        <v>2127200</v>
+        <v>846900</v>
       </c>
       <c r="G72" s="3">
-        <v>4208400</v>
+        <v>2060700</v>
       </c>
       <c r="H72" s="3">
-        <v>3914900</v>
+        <v>4076800</v>
       </c>
       <c r="I72" s="3">
-        <v>3600700</v>
+        <v>3792500</v>
       </c>
       <c r="J72" s="3">
+        <v>3488100</v>
+      </c>
+      <c r="K72" s="3">
         <v>3555400</v>
       </c>
-      <c r="K72" s="3"/>
-    </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L72" s="3"/>
+    </row>
+    <row r="73" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2324,9 +2535,12 @@
       <c r="J73" s="3">
         <v>0</v>
       </c>
-      <c r="K73" s="3"/>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K73" s="3">
+        <v>0</v>
+      </c>
+      <c r="L73" s="3"/>
+    </row>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2351,9 +2565,12 @@
       <c r="J74" s="3">
         <v>0</v>
       </c>
-      <c r="K74" s="3"/>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K74" s="3">
+        <v>0</v>
+      </c>
+      <c r="L74" s="3"/>
+    </row>
+    <row r="75" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2378,36 +2595,42 @@
       <c r="J75" s="3">
         <v>0</v>
       </c>
-      <c r="K75" s="3"/>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K75" s="3">
+        <v>0</v>
+      </c>
+      <c r="L75" s="3"/>
+    </row>
+    <row r="76" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>16178100</v>
+        <v>18871600</v>
       </c>
       <c r="E76" s="3">
-        <v>15577400</v>
+        <v>15672300</v>
       </c>
       <c r="F76" s="3">
-        <v>10708400</v>
+        <v>15090300</v>
       </c>
       <c r="G76" s="3">
-        <v>12917700</v>
+        <v>10373500</v>
       </c>
       <c r="H76" s="3">
-        <v>12838700</v>
+        <v>12513900</v>
       </c>
       <c r="I76" s="3">
-        <v>12051200</v>
+        <v>12437200</v>
       </c>
       <c r="J76" s="3">
+        <v>11674400</v>
+      </c>
+      <c r="K76" s="3">
         <v>11021100</v>
       </c>
-      <c r="K76" s="3"/>
-    </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L76" s="3"/>
+    </row>
+    <row r="77" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2432,68 +2655,77 @@
       <c r="J77" s="3">
         <v>0</v>
       </c>
-      <c r="K77" s="3"/>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K77" s="3">
+        <v>0</v>
+      </c>
+      <c r="L77" s="3"/>
+    </row>
+    <row r="79" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43465</v>
+      </c>
+      <c r="E80" s="2">
         <v>43100</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>42735</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>42369</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>42004</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>41639</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>41274</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>40908</v>
       </c>
-      <c r="K80" s="2"/>
-    </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L80" s="2"/>
+    </row>
+    <row r="81" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>2302400</v>
+        <v>2633800</v>
       </c>
       <c r="E81" s="3">
-        <v>95300</v>
+        <v>2230400</v>
       </c>
       <c r="F81" s="3">
-        <v>-952600</v>
+        <v>92300</v>
       </c>
       <c r="G81" s="3">
-        <v>1339000</v>
+        <v>-922800</v>
       </c>
       <c r="H81" s="3">
-        <v>1315200</v>
+        <v>1297200</v>
       </c>
       <c r="I81" s="3">
-        <v>997900</v>
+        <v>1274100</v>
       </c>
       <c r="J81" s="3">
+        <v>966700</v>
+      </c>
+      <c r="K81" s="3">
         <v>1172300</v>
       </c>
-      <c r="K81" s="3"/>
-    </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L81" s="3"/>
+    </row>
+    <row r="82" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2505,35 +2737,39 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+    </row>
+    <row r="83" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>1578700</v>
+        <v>1748900</v>
       </c>
       <c r="E83" s="3">
-        <v>1489600</v>
+        <v>1529400</v>
       </c>
       <c r="F83" s="3">
-        <v>1355900</v>
+        <v>1443000</v>
       </c>
       <c r="G83" s="3">
-        <v>1237600</v>
+        <v>1313500</v>
       </c>
       <c r="H83" s="3">
-        <v>1140800</v>
+        <v>1198900</v>
       </c>
       <c r="I83" s="3">
-        <v>1056300</v>
+        <v>1105200</v>
       </c>
       <c r="J83" s="3">
+        <v>1023300</v>
+      </c>
+      <c r="K83" s="3">
         <v>1020200</v>
       </c>
-      <c r="K83" s="3"/>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L83" s="3"/>
+    </row>
+    <row r="84" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2558,9 +2794,12 @@
       <c r="J84" s="3">
         <v>0</v>
       </c>
-      <c r="K84" s="3"/>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K84" s="3">
+        <v>0</v>
+      </c>
+      <c r="L84" s="3"/>
+    </row>
+    <row r="85" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2585,9 +2824,12 @@
       <c r="J85" s="3">
         <v>0</v>
       </c>
-      <c r="K85" s="3"/>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K85" s="3">
+        <v>0</v>
+      </c>
+      <c r="L85" s="3"/>
+    </row>
+    <row r="86" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2612,9 +2854,12 @@
       <c r="J86" s="3">
         <v>0</v>
       </c>
-      <c r="K86" s="3"/>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K86" s="3">
+        <v>0</v>
+      </c>
+      <c r="L86" s="3"/>
+    </row>
+    <row r="87" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2639,9 +2884,12 @@
       <c r="J87" s="3">
         <v>0</v>
       </c>
-      <c r="K87" s="3"/>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K87" s="3">
+        <v>0</v>
+      </c>
+      <c r="L87" s="3"/>
+    </row>
+    <row r="88" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2666,36 +2914,42 @@
       <c r="J88" s="3">
         <v>0</v>
       </c>
-      <c r="K88" s="3"/>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K88" s="3">
+        <v>0</v>
+      </c>
+      <c r="L88" s="3"/>
+    </row>
+    <row r="89" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>4017800</v>
+        <v>4878300</v>
       </c>
       <c r="E89" s="3">
-        <v>3894200</v>
+        <v>3892200</v>
       </c>
       <c r="F89" s="3">
-        <v>3161300</v>
+        <v>3772400</v>
       </c>
       <c r="G89" s="3">
-        <v>3133600</v>
+        <v>3062400</v>
       </c>
       <c r="H89" s="3">
-        <v>2822500</v>
+        <v>3035600</v>
       </c>
       <c r="I89" s="3">
-        <v>2743300</v>
+        <v>2734200</v>
       </c>
       <c r="J89" s="3">
+        <v>2657600</v>
+      </c>
+      <c r="K89" s="3">
         <v>2831700</v>
       </c>
-      <c r="K89" s="3"/>
-    </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L89" s="3"/>
+    </row>
+    <row r="90" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2707,35 +2961,39 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+    </row>
+    <row r="91" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-5784000</v>
+        <v>-7378100</v>
       </c>
       <c r="E91" s="3">
-        <v>-4073200</v>
+        <v>-5603200</v>
       </c>
       <c r="F91" s="3">
-        <v>-3402500</v>
+        <v>-3945800</v>
       </c>
       <c r="G91" s="3">
-        <v>-3347200</v>
+        <v>-3296100</v>
       </c>
       <c r="H91" s="3">
-        <v>-3427100</v>
+        <v>-3242500</v>
       </c>
       <c r="I91" s="3">
-        <v>-1993600</v>
+        <v>-3319900</v>
       </c>
       <c r="J91" s="3">
+        <v>-1931200</v>
+      </c>
+      <c r="K91" s="3">
         <v>-1930600</v>
       </c>
-      <c r="K91" s="3"/>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L91" s="3"/>
+    </row>
+    <row r="92" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2760,9 +3018,12 @@
       <c r="J92" s="3">
         <v>0</v>
       </c>
-      <c r="K92" s="3"/>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K92" s="3">
+        <v>0</v>
+      </c>
+      <c r="L92" s="3"/>
+    </row>
+    <row r="93" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2787,36 +3048,42 @@
       <c r="J93" s="3">
         <v>0</v>
       </c>
-      <c r="K93" s="3"/>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K93" s="3">
+        <v>0</v>
+      </c>
+      <c r="L93" s="3"/>
+    </row>
+    <row r="94" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-2841700</v>
+        <v>-7456200</v>
       </c>
       <c r="E94" s="3">
-        <v>-14429700</v>
+        <v>-2752800</v>
       </c>
       <c r="F94" s="3">
-        <v>-3541500</v>
+        <v>-13978500</v>
       </c>
       <c r="G94" s="3">
-        <v>-3183500</v>
+        <v>-3430800</v>
       </c>
       <c r="H94" s="3">
-        <v>-3933300</v>
+        <v>-3084000</v>
       </c>
       <c r="I94" s="3">
-        <v>-2501400</v>
+        <v>-3810400</v>
       </c>
       <c r="J94" s="3">
+        <v>-2423100</v>
+      </c>
+      <c r="K94" s="3">
         <v>-2346200</v>
       </c>
-      <c r="K94" s="3"/>
-    </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L94" s="3"/>
+    </row>
+    <row r="95" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2828,35 +3095,39 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+    </row>
+    <row r="96" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-1147700</v>
+        <v>-1286700</v>
       </c>
       <c r="E96" s="3">
-        <v>-1180000</v>
+        <v>-1111800</v>
       </c>
       <c r="F96" s="3">
-        <v>-1181500</v>
+        <v>-1143100</v>
       </c>
       <c r="G96" s="3">
-        <v>-1105500</v>
+        <v>-1144600</v>
       </c>
       <c r="H96" s="3">
-        <v>-1041700</v>
+        <v>-1070900</v>
       </c>
       <c r="I96" s="3">
-        <v>-984100</v>
+        <v>-1009100</v>
       </c>
       <c r="J96" s="3">
+        <v>-953300</v>
+      </c>
+      <c r="K96" s="3">
         <v>-1561000</v>
       </c>
-      <c r="K96" s="3"/>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L96" s="3"/>
+    </row>
+    <row r="97" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -2881,9 +3152,12 @@
       <c r="J97" s="3">
         <v>0</v>
       </c>
-      <c r="K97" s="3"/>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K97" s="3">
+        <v>0</v>
+      </c>
+      <c r="L97" s="3"/>
+    </row>
+    <row r="98" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -2908,9 +3182,12 @@
       <c r="J98" s="3">
         <v>0</v>
       </c>
-      <c r="K98" s="3"/>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K98" s="3">
+        <v>0</v>
+      </c>
+      <c r="L98" s="3"/>
+    </row>
+    <row r="99" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -2935,88 +3212,100 @@
       <c r="J99" s="3">
         <v>0</v>
       </c>
-      <c r="K99" s="3"/>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K99" s="3">
+        <v>0</v>
+      </c>
+      <c r="L99" s="3"/>
+    </row>
+    <row r="100" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-1090100</v>
+        <v>2045100</v>
       </c>
       <c r="E100" s="3">
-        <v>10760600</v>
+        <v>-1056000</v>
       </c>
       <c r="F100" s="3">
-        <v>571600</v>
+        <v>10424100</v>
       </c>
       <c r="G100" s="3">
-        <v>-286500</v>
+        <v>553700</v>
       </c>
       <c r="H100" s="3">
-        <v>1378200</v>
+        <v>-277600</v>
       </c>
       <c r="I100" s="3">
-        <v>-309600</v>
+        <v>1335100</v>
       </c>
       <c r="J100" s="3">
+        <v>-299900</v>
+      </c>
+      <c r="K100" s="3">
         <v>-493200</v>
       </c>
-      <c r="K100" s="3"/>
-    </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L100" s="3"/>
+    </row>
+    <row r="101" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-30000</v>
+        <v>54300</v>
       </c>
       <c r="E101" s="3">
-        <v>-97600</v>
+        <v>-29000</v>
       </c>
       <c r="F101" s="3">
-        <v>86000</v>
+        <v>-94500</v>
       </c>
       <c r="G101" s="3">
-        <v>0</v>
+        <v>83400</v>
       </c>
       <c r="H101" s="3">
-        <v>21500</v>
+        <v>0</v>
       </c>
       <c r="I101" s="3">
-        <v>-11500</v>
+        <v>20800</v>
       </c>
       <c r="J101" s="3">
+        <v>-11200</v>
+      </c>
+      <c r="K101" s="3">
         <v>3100</v>
       </c>
-      <c r="K101" s="3"/>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L101" s="3"/>
+    </row>
+    <row r="102" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>56100</v>
+        <v>-478500</v>
       </c>
       <c r="E102" s="3">
-        <v>127500</v>
+        <v>54300</v>
       </c>
       <c r="F102" s="3">
-        <v>277300</v>
+        <v>123500</v>
       </c>
       <c r="G102" s="3">
-        <v>-336500</v>
+        <v>268700</v>
       </c>
       <c r="H102" s="3">
-        <v>288900</v>
+        <v>-326000</v>
       </c>
       <c r="I102" s="3">
-        <v>-79100</v>
+        <v>279800</v>
       </c>
       <c r="J102" s="3">
+        <v>-76700</v>
+      </c>
+      <c r="K102" s="3">
         <v>-4600</v>
       </c>
-      <c r="K102" s="3"/>
+      <c r="L102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Financials/Yearly/TRP_YR_FIN.xlsx
+++ b/Financials/Yearly/TRP_YR_FIN.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Yearly\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDE5090B-25F0-40CE-9947-5D0C16629361}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9348" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9345"/>
   </bookViews>
   <sheets>
     <sheet name="TRP" sheetId="6" r:id="rId1"/>
@@ -304,7 +303,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
@@ -445,23 +444,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -497,23 +479,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -689,34 +654,34 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A5:L102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="69.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="11" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.109375" style="1"/>
+    <col min="1" max="1" width="5.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
@@ -746,97 +711,97 @@
       </c>
       <c r="L7" s="2"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>10180000</v>
+        <v>10297400</v>
       </c>
       <c r="E8" s="3">
-        <v>10008900</v>
+        <v>10124300</v>
       </c>
       <c r="F8" s="3">
-        <v>9337600</v>
+        <v>9445300</v>
       </c>
       <c r="G8" s="3">
-        <v>8449000</v>
+        <v>8546400</v>
       </c>
       <c r="H8" s="3">
-        <v>7579800</v>
+        <v>7667200</v>
       </c>
       <c r="I8" s="3">
-        <v>6546800</v>
+        <v>6622300</v>
       </c>
       <c r="J8" s="3">
-        <v>5958900</v>
+        <v>6027600</v>
       </c>
       <c r="K8" s="3">
         <v>6022200</v>
       </c>
       <c r="L8" s="3"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>3779800</v>
+        <v>2703300</v>
       </c>
       <c r="E9" s="3">
-        <v>4679600</v>
+        <v>2940400</v>
       </c>
       <c r="F9" s="3">
-        <v>4489800</v>
+        <v>2906500</v>
       </c>
       <c r="G9" s="3">
-        <v>4122900</v>
+        <v>2486500</v>
       </c>
       <c r="H9" s="3">
-        <v>3578900</v>
+        <v>2238000</v>
       </c>
       <c r="I9" s="3">
-        <v>2970100</v>
+        <v>2013000</v>
       </c>
       <c r="J9" s="3">
-        <v>2698500</v>
+        <v>1939900</v>
       </c>
       <c r="K9" s="3">
         <v>2572800</v>
       </c>
       <c r="L9" s="3"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>6400200</v>
+        <v>7594100</v>
       </c>
       <c r="E10" s="3">
-        <v>5329300</v>
+        <v>7183900</v>
       </c>
       <c r="F10" s="3">
-        <v>4847800</v>
+        <v>6538700</v>
       </c>
       <c r="G10" s="3">
-        <v>4326100</v>
+        <v>6060000</v>
       </c>
       <c r="H10" s="3">
-        <v>4000900</v>
+        <v>5429100</v>
       </c>
       <c r="I10" s="3">
-        <v>3576700</v>
+        <v>4609300</v>
       </c>
       <c r="J10" s="3">
-        <v>3260400</v>
+        <v>4087600</v>
       </c>
       <c r="K10" s="3">
         <v>3449400</v>
       </c>
       <c r="L10" s="3"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -850,7 +815,7 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -880,7 +845,7 @@
       </c>
       <c r="L12" s="3"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -910,21 +875,21 @@
       </c>
       <c r="L13" s="3"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>596100</v>
+        <v>603000</v>
       </c>
       <c r="E14" s="3">
-        <v>935500</v>
+        <v>946300</v>
       </c>
       <c r="F14" s="3">
-        <v>1114100</v>
+        <v>1126900</v>
       </c>
       <c r="G14" s="3">
-        <v>2787100</v>
+        <v>2835000</v>
       </c>
       <c r="H14" s="3">
         <v>0</v>
@@ -940,37 +905,37 @@
       </c>
       <c r="L14" s="3"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>1748900</v>
+        <v>1769100</v>
       </c>
       <c r="E15" s="3">
-        <v>1529400</v>
+        <v>1547000</v>
       </c>
       <c r="F15" s="3">
-        <v>1443000</v>
+        <v>1459700</v>
       </c>
       <c r="G15" s="3">
-        <v>1313500</v>
+        <v>1328700</v>
       </c>
       <c r="H15" s="3">
-        <v>1198900</v>
+        <v>1212700</v>
       </c>
       <c r="I15" s="3">
-        <v>1105200</v>
+        <v>1117900</v>
       </c>
       <c r="J15" s="3">
-        <v>1023300</v>
+        <v>1035100</v>
       </c>
       <c r="K15" s="3">
         <v>1020200</v>
       </c>
       <c r="L15" s="3"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -981,67 +946,67 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>6548300</v>
+        <v>6623800</v>
       </c>
       <c r="E17" s="3">
-        <v>7567900</v>
+        <v>7655100</v>
       </c>
       <c r="F17" s="3">
-        <v>7460000</v>
+        <v>7546000</v>
       </c>
       <c r="G17" s="3">
-        <v>8608300</v>
+        <v>8723300</v>
       </c>
       <c r="H17" s="3">
-        <v>5129800</v>
+        <v>5189000</v>
       </c>
       <c r="I17" s="3">
-        <v>4406500</v>
+        <v>4457300</v>
       </c>
       <c r="J17" s="3">
-        <v>4044800</v>
+        <v>4091400</v>
       </c>
       <c r="K17" s="3">
         <v>3908000</v>
       </c>
       <c r="L17" s="3"/>
     </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>3631700</v>
+        <v>3673600</v>
       </c>
       <c r="E18" s="3">
-        <v>2441000</v>
+        <v>2469200</v>
       </c>
       <c r="F18" s="3">
-        <v>1877600</v>
+        <v>1899300</v>
       </c>
       <c r="G18" s="3">
-        <v>-159300</v>
+        <v>-176900</v>
       </c>
       <c r="H18" s="3">
-        <v>2449900</v>
+        <v>2478200</v>
       </c>
       <c r="I18" s="3">
-        <v>2140300</v>
+        <v>2165000</v>
       </c>
       <c r="J18" s="3">
-        <v>1914100</v>
+        <v>1936200</v>
       </c>
       <c r="K18" s="3">
         <v>2114200</v>
       </c>
       <c r="L18" s="3"/>
     </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1055,157 +1020,157 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
     </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>992800</v>
+        <v>913100</v>
       </c>
       <c r="E20" s="3">
-        <v>1558400</v>
+        <v>1501800</v>
       </c>
       <c r="F20" s="3">
-        <v>146600</v>
+        <v>62500</v>
       </c>
       <c r="G20" s="3">
-        <v>442100</v>
+        <v>427600</v>
       </c>
       <c r="H20" s="3">
-        <v>543300</v>
+        <v>496800</v>
       </c>
       <c r="I20" s="3">
-        <v>485200</v>
+        <v>490800</v>
       </c>
       <c r="J20" s="3">
-        <v>-307400</v>
+        <v>-310900</v>
       </c>
       <c r="K20" s="3">
         <v>399500</v>
       </c>
       <c r="L20" s="3"/>
     </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>6377100</v>
+        <v>6356600</v>
       </c>
       <c r="E21" s="3">
-        <v>5531900</v>
+        <v>5518600</v>
       </c>
       <c r="F21" s="3">
-        <v>3470300</v>
+        <v>3422100</v>
       </c>
       <c r="G21" s="3">
-        <v>1599100</v>
+        <v>1580000</v>
       </c>
       <c r="H21" s="3">
-        <v>4194600</v>
+        <v>4188300</v>
       </c>
       <c r="I21" s="3">
-        <v>3733000</v>
+        <v>3774200</v>
       </c>
       <c r="J21" s="3">
-        <v>2632200</v>
+        <v>2660800</v>
       </c>
       <c r="K21" s="3">
         <v>3538700</v>
       </c>
       <c r="L21" s="3"/>
     </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>1685600</v>
+        <v>1614000</v>
       </c>
       <c r="E22" s="3">
-        <v>1539000</v>
+        <v>1482200</v>
       </c>
       <c r="F22" s="3">
-        <v>1401300</v>
+        <v>1331700</v>
       </c>
       <c r="G22" s="3">
-        <v>1105900</v>
+        <v>1083300</v>
       </c>
       <c r="H22" s="3">
-        <v>891600</v>
+        <v>849100</v>
       </c>
       <c r="I22" s="3">
-        <v>748700</v>
+        <v>757300</v>
       </c>
       <c r="J22" s="3">
-        <v>164500</v>
+        <v>166400</v>
       </c>
       <c r="K22" s="3">
         <v>758200</v>
       </c>
       <c r="L22" s="3"/>
     </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>2938900</v>
+        <v>2972800</v>
       </c>
       <c r="E23" s="3">
-        <v>2460400</v>
+        <v>2488700</v>
       </c>
       <c r="F23" s="3">
-        <v>622900</v>
+        <v>630100</v>
       </c>
       <c r="G23" s="3">
-        <v>-823100</v>
+        <v>-832600</v>
       </c>
       <c r="H23" s="3">
-        <v>2101600</v>
+        <v>2125900</v>
       </c>
       <c r="I23" s="3">
-        <v>1876900</v>
+        <v>1898500</v>
       </c>
       <c r="J23" s="3">
-        <v>1442300</v>
+        <v>1458900</v>
       </c>
       <c r="K23" s="3">
         <v>1755400</v>
       </c>
       <c r="L23" s="3"/>
     </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>445800</v>
+        <v>450900</v>
       </c>
       <c r="E24" s="3">
-        <v>532100</v>
+        <v>538200</v>
       </c>
       <c r="F24" s="3">
-        <v>262000</v>
+        <v>265000</v>
       </c>
       <c r="G24" s="3">
-        <v>25300</v>
+        <v>25600</v>
       </c>
       <c r="H24" s="3">
-        <v>618400</v>
+        <v>625600</v>
       </c>
       <c r="I24" s="3">
-        <v>454700</v>
+        <v>460000</v>
       </c>
       <c r="J24" s="3">
-        <v>346800</v>
+        <v>350800</v>
       </c>
       <c r="K24" s="3">
         <v>441700</v>
       </c>
       <c r="L24" s="3"/>
     </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1235,67 +1200,67 @@
       </c>
       <c r="L25" s="3"/>
     </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>2493100</v>
+        <v>2521800</v>
       </c>
       <c r="E26" s="3">
-        <v>1928200</v>
+        <v>1950500</v>
       </c>
       <c r="F26" s="3">
-        <v>360900</v>
+        <v>365100</v>
       </c>
       <c r="G26" s="3">
-        <v>-848400</v>
+        <v>-858200</v>
       </c>
       <c r="H26" s="3">
-        <v>1483200</v>
+        <v>1500300</v>
       </c>
       <c r="I26" s="3">
-        <v>1422200</v>
+        <v>1438600</v>
       </c>
       <c r="J26" s="3">
-        <v>1095500</v>
+        <v>1108100</v>
       </c>
       <c r="K26" s="3">
         <v>1313700</v>
       </c>
       <c r="L26" s="3"/>
     </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>2509500</v>
+        <v>2538400</v>
       </c>
       <c r="E27" s="3">
-        <v>1632100</v>
+        <v>1650900</v>
       </c>
       <c r="F27" s="3">
-        <v>92300</v>
+        <v>93300</v>
       </c>
       <c r="G27" s="3">
-        <v>-922800</v>
+        <v>-933500</v>
       </c>
       <c r="H27" s="3">
-        <v>1297200</v>
+        <v>1312100</v>
       </c>
       <c r="I27" s="3">
-        <v>1274100</v>
+        <v>1288800</v>
       </c>
       <c r="J27" s="3">
-        <v>966700</v>
+        <v>977900</v>
       </c>
       <c r="K27" s="3">
         <v>1172300</v>
       </c>
       <c r="L27" s="3"/>
     </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1325,15 +1290,15 @@
       </c>
       <c r="L28" s="3"/>
     </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>124300</v>
+        <v>125700</v>
       </c>
       <c r="E29" s="3">
-        <v>598300</v>
+        <v>605200</v>
       </c>
       <c r="F29" s="3">
         <v>0</v>
@@ -1355,7 +1320,7 @@
       </c>
       <c r="L29" s="3"/>
     </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1385,7 +1350,7 @@
       </c>
       <c r="L30" s="3"/>
     </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1415,67 +1380,67 @@
       </c>
       <c r="L31" s="3"/>
     </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-992800</v>
+        <v>-913100</v>
       </c>
       <c r="E32" s="3">
-        <v>-1558400</v>
+        <v>-1501800</v>
       </c>
       <c r="F32" s="3">
-        <v>-146600</v>
+        <v>-62500</v>
       </c>
       <c r="G32" s="3">
-        <v>-442100</v>
+        <v>-427600</v>
       </c>
       <c r="H32" s="3">
-        <v>-543300</v>
+        <v>-496800</v>
       </c>
       <c r="I32" s="3">
-        <v>-485200</v>
+        <v>-490800</v>
       </c>
       <c r="J32" s="3">
-        <v>307400</v>
+        <v>310900</v>
       </c>
       <c r="K32" s="3">
         <v>-399500</v>
       </c>
       <c r="L32" s="3"/>
     </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>2633800</v>
+        <v>2664100</v>
       </c>
       <c r="E33" s="3">
-        <v>2230400</v>
+        <v>2256100</v>
       </c>
       <c r="F33" s="3">
-        <v>92300</v>
+        <v>93300</v>
       </c>
       <c r="G33" s="3">
-        <v>-922800</v>
+        <v>-933500</v>
       </c>
       <c r="H33" s="3">
-        <v>1297200</v>
+        <v>1312100</v>
       </c>
       <c r="I33" s="3">
-        <v>1274100</v>
+        <v>1288800</v>
       </c>
       <c r="J33" s="3">
-        <v>966700</v>
+        <v>977900</v>
       </c>
       <c r="K33" s="3">
         <v>1172300</v>
       </c>
       <c r="L33" s="3"/>
     </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1505,42 +1470,42 @@
       </c>
       <c r="L34" s="3"/>
     </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>2633800</v>
+        <v>2664100</v>
       </c>
       <c r="E35" s="3">
-        <v>2230400</v>
+        <v>2256100</v>
       </c>
       <c r="F35" s="3">
-        <v>92300</v>
+        <v>93300</v>
       </c>
       <c r="G35" s="3">
-        <v>-922800</v>
+        <v>-933500</v>
       </c>
       <c r="H35" s="3">
-        <v>1297200</v>
+        <v>1312100</v>
       </c>
       <c r="I35" s="3">
-        <v>1274100</v>
+        <v>1288800</v>
       </c>
       <c r="J35" s="3">
-        <v>966700</v>
+        <v>977900</v>
       </c>
       <c r="K35" s="3">
         <v>1172300</v>
       </c>
       <c r="L35" s="3"/>
     </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
@@ -1570,7 +1535,7 @@
       </c>
       <c r="L38" s="2"/>
     </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1584,7 +1549,7 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
     </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1598,42 +1563,42 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
     </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>331900</v>
+        <v>335700</v>
       </c>
       <c r="E41" s="3">
-        <v>810400</v>
+        <v>819800</v>
       </c>
       <c r="F41" s="3">
-        <v>756100</v>
+        <v>764800</v>
       </c>
       <c r="G41" s="3">
-        <v>632600</v>
+        <v>639900</v>
       </c>
       <c r="H41" s="3">
-        <v>363900</v>
+        <v>368100</v>
       </c>
       <c r="I41" s="3">
-        <v>689900</v>
+        <v>697800</v>
       </c>
       <c r="J41" s="3">
-        <v>410100</v>
+        <v>414800</v>
       </c>
       <c r="K41" s="3">
         <v>502400</v>
       </c>
       <c r="L41" s="3"/>
     </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>533600</v>
+        <v>539800</v>
       </c>
       <c r="E42" s="3" t="s">
         <v>8</v>
@@ -1658,217 +1623,217 @@
       </c>
       <c r="L42" s="3"/>
     </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>2004900</v>
+        <v>2028000</v>
       </c>
       <c r="E43" s="3">
-        <v>1876900</v>
+        <v>1898500</v>
       </c>
       <c r="F43" s="3">
-        <v>1544200</v>
+        <v>1562000</v>
       </c>
       <c r="G43" s="3">
-        <v>1032200</v>
+        <v>1044100</v>
       </c>
       <c r="H43" s="3">
-        <v>977100</v>
+        <v>988400</v>
       </c>
       <c r="I43" s="3">
-        <v>835000</v>
+        <v>844600</v>
       </c>
       <c r="J43" s="3">
-        <v>782900</v>
+        <v>791900</v>
       </c>
       <c r="K43" s="3">
         <v>840400</v>
       </c>
       <c r="L43" s="3"/>
     </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>320800</v>
+        <v>324500</v>
       </c>
       <c r="E44" s="3">
-        <v>281300</v>
+        <v>284600</v>
       </c>
       <c r="F44" s="3">
-        <v>273900</v>
+        <v>277000</v>
       </c>
       <c r="G44" s="3">
-        <v>240400</v>
+        <v>243200</v>
       </c>
       <c r="H44" s="3">
-        <v>217300</v>
+        <v>219800</v>
       </c>
       <c r="I44" s="3">
-        <v>186800</v>
+        <v>189000</v>
       </c>
       <c r="J44" s="3">
-        <v>166700</v>
+        <v>168600</v>
       </c>
       <c r="K44" s="3">
         <v>190500</v>
       </c>
       <c r="L44" s="3"/>
     </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>630300</v>
+        <v>637600</v>
       </c>
       <c r="E45" s="3">
-        <v>514200</v>
+        <v>520200</v>
       </c>
       <c r="F45" s="3">
-        <v>3442000</v>
+        <v>3481700</v>
       </c>
       <c r="G45" s="3">
-        <v>1524100</v>
+        <v>1541700</v>
       </c>
       <c r="H45" s="3">
-        <v>1834500</v>
+        <v>1855600</v>
       </c>
       <c r="I45" s="3">
-        <v>630300</v>
+        <v>637600</v>
       </c>
       <c r="J45" s="3">
-        <v>742000</v>
+        <v>750500</v>
       </c>
       <c r="K45" s="3">
         <v>855800</v>
       </c>
       <c r="L45" s="3"/>
     </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>3821500</v>
+        <v>3865600</v>
       </c>
       <c r="E46" s="3">
-        <v>3482900</v>
+        <v>3523100</v>
       </c>
       <c r="F46" s="3">
-        <v>6016200</v>
+        <v>6085600</v>
       </c>
       <c r="G46" s="3">
-        <v>2915800</v>
+        <v>2949400</v>
       </c>
       <c r="H46" s="3">
-        <v>2316700</v>
+        <v>2343400</v>
       </c>
       <c r="I46" s="3">
-        <v>2342000</v>
+        <v>2369000</v>
       </c>
       <c r="J46" s="3">
-        <v>2101600</v>
+        <v>2125900</v>
       </c>
       <c r="K46" s="3">
         <v>2389200</v>
       </c>
       <c r="L46" s="3"/>
     </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>6309400</v>
+        <v>6382200</v>
       </c>
       <c r="E47" s="3">
-        <v>5472900</v>
+        <v>5536000</v>
       </c>
       <c r="F47" s="3">
-        <v>4957900</v>
+        <v>5015100</v>
       </c>
       <c r="G47" s="3">
-        <v>4836600</v>
+        <v>4892400</v>
       </c>
       <c r="H47" s="3">
-        <v>4344700</v>
+        <v>4394800</v>
       </c>
       <c r="I47" s="3">
-        <v>4505400</v>
+        <v>4557400</v>
       </c>
       <c r="J47" s="3">
-        <v>4278500</v>
+        <v>4327800</v>
       </c>
       <c r="K47" s="3">
         <v>4236000</v>
       </c>
       <c r="L47" s="3"/>
     </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>49492200</v>
+        <v>50062800</v>
       </c>
       <c r="E48" s="3">
-        <v>42626100</v>
+        <v>43117600</v>
       </c>
       <c r="F48" s="3">
-        <v>40540800</v>
+        <v>41008200</v>
       </c>
       <c r="G48" s="3">
-        <v>66706500</v>
+        <v>67475600</v>
       </c>
       <c r="H48" s="3">
-        <v>62177300</v>
+        <v>62894100</v>
       </c>
       <c r="I48" s="3">
-        <v>27986800</v>
+        <v>28309400</v>
       </c>
       <c r="J48" s="3">
-        <v>25089600</v>
+        <v>25378800</v>
       </c>
       <c r="K48" s="3">
         <v>93656500</v>
       </c>
       <c r="L48" s="3"/>
     </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>11333600</v>
+        <v>11464200</v>
       </c>
       <c r="E49" s="3">
-        <v>10180800</v>
+        <v>10298200</v>
       </c>
       <c r="F49" s="3">
-        <v>11946100</v>
+        <v>12083800</v>
       </c>
       <c r="G49" s="3">
-        <v>7278400</v>
+        <v>7362300</v>
       </c>
       <c r="H49" s="3">
-        <v>4364000</v>
+        <v>4414400</v>
       </c>
       <c r="I49" s="3">
-        <v>3416700</v>
+        <v>3456100</v>
       </c>
       <c r="J49" s="3">
-        <v>2853300</v>
+        <v>2886200</v>
       </c>
       <c r="K49" s="3">
         <v>4594800</v>
       </c>
       <c r="L49" s="3"/>
     </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1898,7 +1863,7 @@
       </c>
       <c r="L50" s="3"/>
     </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1928,37 +1893,37 @@
       </c>
       <c r="L51" s="3"/>
     </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>2660600</v>
+        <v>2691200</v>
       </c>
       <c r="E52" s="3">
-        <v>2314500</v>
+        <v>2341200</v>
       </c>
       <c r="F52" s="3">
-        <v>2067400</v>
+        <v>2091300</v>
       </c>
       <c r="G52" s="3">
-        <v>1791300</v>
+        <v>1812000</v>
       </c>
       <c r="H52" s="3">
-        <v>1643200</v>
+        <v>1662200</v>
       </c>
       <c r="I52" s="3">
-        <v>1860500</v>
+        <v>1882000</v>
       </c>
       <c r="J52" s="3">
-        <v>1646900</v>
+        <v>1665900</v>
       </c>
       <c r="K52" s="3">
         <v>1738500</v>
       </c>
       <c r="L52" s="3"/>
     </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1988,37 +1953,37 @@
       </c>
       <c r="L53" s="3"/>
     </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>73617300</v>
+        <v>74466000</v>
       </c>
       <c r="E54" s="3">
-        <v>64077200</v>
+        <v>64816000</v>
       </c>
       <c r="F54" s="3">
-        <v>65528400</v>
+        <v>66283900</v>
       </c>
       <c r="G54" s="3">
-        <v>47925600</v>
+        <v>48478200</v>
       </c>
       <c r="H54" s="3">
-        <v>43554900</v>
+        <v>44057000</v>
       </c>
       <c r="I54" s="3">
-        <v>40111400</v>
+        <v>40573900</v>
       </c>
       <c r="J54" s="3">
-        <v>35969900</v>
+        <v>36384600</v>
       </c>
       <c r="K54" s="3">
         <v>36366500</v>
       </c>
       <c r="L54" s="3"/>
     </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2032,7 +1997,7 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
     </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2046,187 +2011,187 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
     </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>2898700</v>
+        <v>2932100</v>
       </c>
       <c r="E57" s="3">
-        <v>2731300</v>
+        <v>2762700</v>
       </c>
       <c r="F57" s="3">
-        <v>2054000</v>
+        <v>2077700</v>
       </c>
       <c r="G57" s="3">
-        <v>2721600</v>
+        <v>2753000</v>
       </c>
       <c r="H57" s="3">
-        <v>1208600</v>
+        <v>1222500</v>
       </c>
       <c r="I57" s="3">
-        <v>644500</v>
+        <v>651900</v>
       </c>
       <c r="J57" s="3">
-        <v>686900</v>
+        <v>694800</v>
       </c>
       <c r="K57" s="3">
         <v>534700</v>
       </c>
       <c r="L57" s="3"/>
     </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>4632000</v>
+        <v>4685400</v>
       </c>
       <c r="E58" s="3">
-        <v>3444900</v>
+        <v>3484700</v>
       </c>
       <c r="F58" s="3">
-        <v>1943900</v>
+        <v>1966300</v>
       </c>
       <c r="G58" s="3">
-        <v>2802000</v>
+        <v>2834300</v>
       </c>
       <c r="H58" s="3">
-        <v>3173300</v>
+        <v>3209900</v>
       </c>
       <c r="I58" s="3">
-        <v>2095000</v>
+        <v>2119100</v>
       </c>
       <c r="J58" s="3">
-        <v>2358400</v>
+        <v>2385600</v>
       </c>
       <c r="K58" s="3">
         <v>2174900</v>
       </c>
       <c r="L58" s="3"/>
     </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>2103900</v>
+        <v>2128100</v>
       </c>
       <c r="E59" s="3">
-        <v>1174400</v>
+        <v>1187900</v>
       </c>
       <c r="F59" s="3">
-        <v>1717600</v>
+        <v>1737400</v>
       </c>
       <c r="G59" s="3">
-        <v>1514500</v>
+        <v>1531900</v>
       </c>
       <c r="H59" s="3">
-        <v>1262200</v>
+        <v>1276700</v>
       </c>
       <c r="I59" s="3">
-        <v>1248000</v>
+        <v>1262400</v>
       </c>
       <c r="J59" s="3">
-        <v>1331400</v>
+        <v>1346700</v>
       </c>
       <c r="K59" s="3">
         <v>1558000</v>
       </c>
       <c r="L59" s="3"/>
     </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>9634500</v>
+        <v>9745600</v>
       </c>
       <c r="E60" s="3">
-        <v>7350600</v>
+        <v>7435300</v>
       </c>
       <c r="F60" s="3">
-        <v>5715500</v>
+        <v>5781400</v>
       </c>
       <c r="G60" s="3">
-        <v>5478900</v>
+        <v>5542000</v>
       </c>
       <c r="H60" s="3">
-        <v>5641100</v>
+        <v>5706100</v>
       </c>
       <c r="I60" s="3">
-        <v>3987500</v>
+        <v>4033400</v>
       </c>
       <c r="J60" s="3">
-        <v>4376700</v>
+        <v>4427200</v>
       </c>
       <c r="K60" s="3">
         <v>4242200</v>
       </c>
       <c r="L60" s="3"/>
     </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>32757900</v>
+        <v>33135600</v>
       </c>
       <c r="E61" s="3">
-        <v>28936400</v>
+        <v>29270000</v>
       </c>
       <c r="F61" s="3">
-        <v>31437700</v>
+        <v>31800100</v>
       </c>
       <c r="G61" s="3">
-        <v>23307200</v>
+        <v>23575900</v>
       </c>
       <c r="H61" s="3">
-        <v>17950300</v>
+        <v>18157300</v>
       </c>
       <c r="I61" s="3">
-        <v>17083300</v>
+        <v>17280300</v>
       </c>
       <c r="J61" s="3">
-        <v>14149700</v>
+        <v>14312800</v>
       </c>
       <c r="K61" s="3">
         <v>14396600</v>
       </c>
       <c r="L61" s="3"/>
     </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>8159500</v>
+        <v>8253600</v>
       </c>
       <c r="E62" s="3">
-        <v>7777700</v>
+        <v>7867400</v>
       </c>
       <c r="F62" s="3">
-        <v>9038400</v>
+        <v>9142600</v>
       </c>
       <c r="G62" s="3">
-        <v>6566200</v>
+        <v>6641900</v>
       </c>
       <c r="H62" s="3">
-        <v>4593300</v>
+        <v>4646200</v>
       </c>
       <c r="I62" s="3">
-        <v>4055200</v>
+        <v>4102000</v>
       </c>
       <c r="J62" s="3">
-        <v>3797700</v>
+        <v>3841500</v>
       </c>
       <c r="K62" s="3">
         <v>4414200</v>
       </c>
       <c r="L62" s="3"/>
     </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2256,7 +2221,7 @@
       </c>
       <c r="L63" s="3"/>
     </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2286,7 +2251,7 @@
       </c>
       <c r="L64" s="3"/>
     </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2316,37 +2281,37 @@
       </c>
       <c r="L65" s="3"/>
     </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>51783600</v>
+        <v>52380600</v>
       </c>
       <c r="E66" s="3">
-        <v>45443000</v>
+        <v>45966900</v>
       </c>
       <c r="F66" s="3">
-        <v>47476100</v>
+        <v>48023500</v>
       </c>
       <c r="G66" s="3">
-        <v>35692300</v>
+        <v>36103800</v>
       </c>
       <c r="H66" s="3">
-        <v>29362800</v>
+        <v>29701300</v>
       </c>
       <c r="I66" s="3">
-        <v>26324900</v>
+        <v>26628400</v>
       </c>
       <c r="J66" s="3">
-        <v>23384600</v>
+        <v>23654200</v>
       </c>
       <c r="K66" s="3">
         <v>23464800</v>
       </c>
       <c r="L66" s="3"/>
     </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2360,7 +2325,7 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
     </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2390,7 +2355,7 @@
       </c>
       <c r="L68" s="3"/>
     </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2420,37 +2385,37 @@
       </c>
       <c r="L69" s="3"/>
     </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D70" s="3">
-        <v>2962000</v>
+        <v>2996100</v>
       </c>
       <c r="E70" s="3">
-        <v>2962000</v>
+        <v>2996100</v>
       </c>
       <c r="F70" s="3">
-        <v>2962000</v>
+        <v>2996100</v>
       </c>
       <c r="G70" s="3">
-        <v>1859800</v>
+        <v>1881200</v>
       </c>
       <c r="H70" s="3">
-        <v>1678200</v>
+        <v>1697500</v>
       </c>
       <c r="I70" s="3">
-        <v>1349300</v>
+        <v>1364800</v>
       </c>
       <c r="J70" s="3">
-        <v>910900</v>
+        <v>921400</v>
       </c>
       <c r="K70" s="3">
         <v>1880600</v>
       </c>
       <c r="L70" s="3"/>
     </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2480,37 +2445,37 @@
       </c>
       <c r="L71" s="3"/>
     </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>2063700</v>
+        <v>2087500</v>
       </c>
       <c r="E72" s="3">
-        <v>1207900</v>
+        <v>1221800</v>
       </c>
       <c r="F72" s="3">
-        <v>846900</v>
+        <v>856700</v>
       </c>
       <c r="G72" s="3">
-        <v>2060700</v>
+        <v>2084500</v>
       </c>
       <c r="H72" s="3">
-        <v>4076800</v>
+        <v>4123800</v>
       </c>
       <c r="I72" s="3">
-        <v>3792500</v>
+        <v>3836200</v>
       </c>
       <c r="J72" s="3">
-        <v>3488100</v>
+        <v>3528300</v>
       </c>
       <c r="K72" s="3">
         <v>3555400</v>
       </c>
       <c r="L72" s="3"/>
     </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2540,7 +2505,7 @@
       </c>
       <c r="L73" s="3"/>
     </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2570,7 +2535,7 @@
       </c>
       <c r="L74" s="3"/>
     </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2600,37 +2565,37 @@
       </c>
       <c r="L75" s="3"/>
     </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>18871600</v>
+        <v>19089300</v>
       </c>
       <c r="E76" s="3">
-        <v>15672300</v>
+        <v>15853000</v>
       </c>
       <c r="F76" s="3">
-        <v>15090300</v>
+        <v>15264300</v>
       </c>
       <c r="G76" s="3">
-        <v>10373500</v>
+        <v>10493200</v>
       </c>
       <c r="H76" s="3">
-        <v>12513900</v>
+        <v>12658200</v>
       </c>
       <c r="I76" s="3">
-        <v>12437200</v>
+        <v>12580600</v>
       </c>
       <c r="J76" s="3">
-        <v>11674400</v>
+        <v>11809000</v>
       </c>
       <c r="K76" s="3">
         <v>11021100</v>
       </c>
       <c r="L76" s="3"/>
     </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2660,12 +2625,12 @@
       </c>
       <c r="L77" s="3"/>
     </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
@@ -2695,37 +2660,37 @@
       </c>
       <c r="L80" s="2"/>
     </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>2633800</v>
+        <v>2664100</v>
       </c>
       <c r="E81" s="3">
-        <v>2230400</v>
+        <v>2256100</v>
       </c>
       <c r="F81" s="3">
-        <v>92300</v>
+        <v>93300</v>
       </c>
       <c r="G81" s="3">
-        <v>-922800</v>
+        <v>-933500</v>
       </c>
       <c r="H81" s="3">
-        <v>1297200</v>
+        <v>1312100</v>
       </c>
       <c r="I81" s="3">
-        <v>1274100</v>
+        <v>1288800</v>
       </c>
       <c r="J81" s="3">
-        <v>966700</v>
+        <v>977900</v>
       </c>
       <c r="K81" s="3">
         <v>1172300</v>
       </c>
       <c r="L81" s="3"/>
     </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2739,37 +2704,37 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
     </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>1748900</v>
+        <v>1769100</v>
       </c>
       <c r="E83" s="3">
-        <v>1529400</v>
+        <v>1547000</v>
       </c>
       <c r="F83" s="3">
-        <v>1443000</v>
+        <v>1459700</v>
       </c>
       <c r="G83" s="3">
-        <v>1313500</v>
+        <v>1328700</v>
       </c>
       <c r="H83" s="3">
-        <v>1198900</v>
+        <v>1212700</v>
       </c>
       <c r="I83" s="3">
-        <v>1105200</v>
+        <v>1117900</v>
       </c>
       <c r="J83" s="3">
-        <v>1023300</v>
+        <v>1035100</v>
       </c>
       <c r="K83" s="3">
         <v>1020200</v>
       </c>
       <c r="L83" s="3"/>
     </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2799,7 +2764,7 @@
       </c>
       <c r="L84" s="3"/>
     </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2829,7 +2794,7 @@
       </c>
       <c r="L85" s="3"/>
     </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2859,7 +2824,7 @@
       </c>
       <c r="L86" s="3"/>
     </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2889,7 +2854,7 @@
       </c>
       <c r="L87" s="3"/>
     </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2919,37 +2884,37 @@
       </c>
       <c r="L88" s="3"/>
     </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>4878300</v>
+        <v>4934500</v>
       </c>
       <c r="E89" s="3">
-        <v>3892200</v>
+        <v>3937100</v>
       </c>
       <c r="F89" s="3">
-        <v>3772400</v>
+        <v>3815900</v>
       </c>
       <c r="G89" s="3">
-        <v>3062400</v>
+        <v>3097700</v>
       </c>
       <c r="H89" s="3">
-        <v>3035600</v>
+        <v>3070600</v>
       </c>
       <c r="I89" s="3">
-        <v>2734200</v>
+        <v>2765800</v>
       </c>
       <c r="J89" s="3">
-        <v>2657600</v>
+        <v>2688200</v>
       </c>
       <c r="K89" s="3">
         <v>2831700</v>
       </c>
       <c r="L89" s="3"/>
     </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2963,37 +2928,37 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
     </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-7378100</v>
+        <v>-7463200</v>
       </c>
       <c r="E91" s="3">
-        <v>-5603200</v>
+        <v>-5667800</v>
       </c>
       <c r="F91" s="3">
-        <v>-3945800</v>
+        <v>-3991300</v>
       </c>
       <c r="G91" s="3">
-        <v>-3296100</v>
+        <v>-3334100</v>
       </c>
       <c r="H91" s="3">
-        <v>-3242500</v>
+        <v>-3279900</v>
       </c>
       <c r="I91" s="3">
-        <v>-3319900</v>
+        <v>-3358200</v>
       </c>
       <c r="J91" s="3">
-        <v>-1931200</v>
+        <v>-1953500</v>
       </c>
       <c r="K91" s="3">
         <v>-1930600</v>
       </c>
       <c r="L91" s="3"/>
     </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3023,7 +2988,7 @@
       </c>
       <c r="L92" s="3"/>
     </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3053,37 +3018,37 @@
       </c>
       <c r="L93" s="3"/>
     </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-7456200</v>
+        <v>-7542200</v>
       </c>
       <c r="E94" s="3">
-        <v>-2752800</v>
+        <v>-2784600</v>
       </c>
       <c r="F94" s="3">
-        <v>-13978500</v>
+        <v>-14139700</v>
       </c>
       <c r="G94" s="3">
-        <v>-3430800</v>
+        <v>-3470400</v>
       </c>
       <c r="H94" s="3">
-        <v>-3084000</v>
+        <v>-3119600</v>
       </c>
       <c r="I94" s="3">
-        <v>-3810400</v>
+        <v>-3854300</v>
       </c>
       <c r="J94" s="3">
-        <v>-2423100</v>
+        <v>-2451100</v>
       </c>
       <c r="K94" s="3">
         <v>-2346200</v>
       </c>
       <c r="L94" s="3"/>
     </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3097,37 +3062,37 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
     </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-1286700</v>
+        <v>-1301600</v>
       </c>
       <c r="E96" s="3">
-        <v>-1111800</v>
+        <v>-1124700</v>
       </c>
       <c r="F96" s="3">
-        <v>-1143100</v>
+        <v>-1156300</v>
       </c>
       <c r="G96" s="3">
-        <v>-1144600</v>
+        <v>-1157800</v>
       </c>
       <c r="H96" s="3">
-        <v>-1070900</v>
+        <v>-1083300</v>
       </c>
       <c r="I96" s="3">
-        <v>-1009100</v>
+        <v>-1020800</v>
       </c>
       <c r="J96" s="3">
-        <v>-953300</v>
+        <v>-964300</v>
       </c>
       <c r="K96" s="3">
         <v>-1561000</v>
       </c>
       <c r="L96" s="3"/>
     </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3157,7 +3122,7 @@
       </c>
       <c r="L97" s="3"/>
     </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3187,7 +3152,7 @@
       </c>
       <c r="L98" s="3"/>
     </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3217,90 +3182,90 @@
       </c>
       <c r="L99" s="3"/>
     </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>2045100</v>
+        <v>2068700</v>
       </c>
       <c r="E100" s="3">
-        <v>-1056000</v>
+        <v>-1068200</v>
       </c>
       <c r="F100" s="3">
-        <v>10424100</v>
+        <v>10544300</v>
       </c>
       <c r="G100" s="3">
-        <v>553700</v>
+        <v>560100</v>
       </c>
       <c r="H100" s="3">
-        <v>-277600</v>
+        <v>-280800</v>
       </c>
       <c r="I100" s="3">
-        <v>1335100</v>
+        <v>1350500</v>
       </c>
       <c r="J100" s="3">
-        <v>-299900</v>
+        <v>-303400</v>
       </c>
       <c r="K100" s="3">
         <v>-493200</v>
       </c>
       <c r="L100" s="3"/>
     </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>54300</v>
+        <v>55000</v>
       </c>
       <c r="E101" s="3">
-        <v>-29000</v>
+        <v>-29400</v>
       </c>
       <c r="F101" s="3">
-        <v>-94500</v>
+        <v>-95600</v>
       </c>
       <c r="G101" s="3">
-        <v>83400</v>
+        <v>84300</v>
       </c>
       <c r="H101" s="3">
         <v>0</v>
       </c>
       <c r="I101" s="3">
-        <v>20800</v>
+        <v>21100</v>
       </c>
       <c r="J101" s="3">
-        <v>-11200</v>
+        <v>-11300</v>
       </c>
       <c r="K101" s="3">
         <v>3100</v>
       </c>
       <c r="L101" s="3"/>
     </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-478500</v>
+        <v>-484000</v>
       </c>
       <c r="E102" s="3">
-        <v>54300</v>
+        <v>55000</v>
       </c>
       <c r="F102" s="3">
-        <v>123500</v>
+        <v>125000</v>
       </c>
       <c r="G102" s="3">
-        <v>268700</v>
+        <v>271800</v>
       </c>
       <c r="H102" s="3">
-        <v>-326000</v>
+        <v>-329700</v>
       </c>
       <c r="I102" s="3">
-        <v>279800</v>
+        <v>283000</v>
       </c>
       <c r="J102" s="3">
-        <v>-76700</v>
+        <v>-77500</v>
       </c>
       <c r="K102" s="3">
         <v>-4600</v>
